--- a/biology/Botanique/Parc_d'Egmont/Parc_d'Egmont.xlsx
+++ b/biology/Botanique/Parc_d'Egmont/Parc_d'Egmont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%27Egmont</t>
+          <t>Parc_d'Egmont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc d'Egmont ou parc du Palais d'Egmont (en néerlandais : Egmontpark) est un parc public de Bruxelles situé entre la rue aux Laines, la rue du Grand-Cerf, le boulevard de Waterloo et le palais d'Egmont.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_d%27Egmont</t>
+          <t>Parc_d'Egmont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc d'Egmont a pour origine les jardins du Palais d'Egmont. Ils furent transformés en jardins à la française par l'architecte Giovanni Niccolò Servandoni de 1759 à 1762. Ils furent réaménagés par l'architecte Tilman-François Suys en 1830. Edmond Galoppin les transforma en parc paysager en 1901. Celui-ci devint la propriété de la ville de Bruxelles en 1918 et fut ouvert au public.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_d%27Egmont</t>
+          <t>Parc_d'Egmont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une superficie d'1,5 ha, le parc d'Egmont est le seul du pentagone bruxellois à être complètement entouré d'habitations[1]. On y accède par le N° 31 du boulevard de Waterloo (Passage de Milan) ainsi que par le côté de The Hotel, entre les n° 32 et le n° 34 de la rue aux Laines (Passage Marguerite Yourcenar) et entre les n° 10 et 12 de la rue du Grand Cerf. Il est actuellement séparé du Palais d'Egmont par une grille derrière laquelle se trouve le jardin de la «cour du Sanglier».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une superficie d'1,5 ha, le parc d'Egmont est le seul du pentagone bruxellois à être complètement entouré d'habitations. On y accède par le N° 31 du boulevard de Waterloo (Passage de Milan) ainsi que par le côté de The Hotel, entre les n° 32 et le n° 34 de la rue aux Laines (Passage Marguerite Yourcenar) et entre les n° 10 et 12 de la rue du Grand Cerf. Il est actuellement séparé du Palais d'Egmont par une grille derrière laquelle se trouve le jardin de la «cour du Sanglier».
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_d%27Egmont</t>
+          <t>Parc_d'Egmont</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Points d'intérêt</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une orangerie située au milieu du parc a été construite entre 1830 et 1839 par Tilman-François Suys pour le duc d'Arenberg. Ce petit bâtiment néoclassique de forme rectangulaire, couvert par un toit à croupes, s'ouvre comme il sied à ce genre d'ouvrage vers le sud par six portes-fenêtres.
 Juste à côté, sous un tumulus, une glacière servait jadis à stocker la glace récoltée en hiver et utilisée en été. Son existence est déjà mentionnée en 1752.
